--- a/AiSD_Lab_Lista6/aisd_wykresy_lista6.xlsx
+++ b/AiSD_Lab_Lista6/aisd_wykresy_lista6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/al/Documents/Development/AiSD_Lab/AiSD_Lab_Lista6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E99E84F-0FD5-7943-A85A-36F69BE4ACA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F052CD-BBEF-DB40-B62B-F6111ED4A7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3820" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{C7128112-AAFE-497F-80CF-4D7C130D65FB}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20140" activeTab="3" xr2:uid="{C7128112-AAFE-497F-80CF-4D7C130D65FB}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderedGenerator" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -321,6 +321,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,16 +363,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -358,12 +372,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,15 +379,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -576,144 +575,6 @@
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
             <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>OrderedGenerator!$C$3:$C$22</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>OrderedGenerator!$C$3:$C$22</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -955,144 +816,6 @@
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
             <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>OrderedGenerator!$C$49:$C$68</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>OrderedGenerator!$C$49:$C$68</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1336,144 +1059,6 @@
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
             <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>OrderedGenerator!$C$95:$C$114</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>OrderedGenerator!$C$95:$C$114</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -36046,15 +35631,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -36539,25 +36124,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -37043,15 +36619,15 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
@@ -37537,506 +37113,497 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-    </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="28"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="30"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="21" t="s">
+      <c r="D71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F71" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G71" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="20">
-        <v>0</v>
-      </c>
-      <c r="B72" s="21">
-        <v>0</v>
-      </c>
-      <c r="C72" s="21">
-        <v>0</v>
-      </c>
-      <c r="D72" s="21">
-        <v>0</v>
-      </c>
-      <c r="E72" s="21">
-        <v>0</v>
-      </c>
-      <c r="F72" s="21">
-        <v>0</v>
-      </c>
-      <c r="G72" s="22">
+      <c r="A72" s="7">
+        <v>0</v>
+      </c>
+      <c r="B72" s="8">
+        <v>0</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0</v>
+      </c>
+      <c r="D72" s="8">
+        <v>0</v>
+      </c>
+      <c r="E72" s="8">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0</v>
+      </c>
+      <c r="G72" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="20">
+      <c r="A73" s="7">
         <v>5</v>
       </c>
-      <c r="B73" s="21">
-        <v>0</v>
-      </c>
-      <c r="C73" s="21">
-        <v>0</v>
-      </c>
-      <c r="D73" s="21">
+      <c r="B73" s="8">
+        <v>0</v>
+      </c>
+      <c r="C73" s="8">
+        <v>0</v>
+      </c>
+      <c r="D73" s="8">
         <v>18</v>
       </c>
-      <c r="E73" s="21">
-        <v>0</v>
-      </c>
-      <c r="F73" s="21">
-        <v>0</v>
-      </c>
-      <c r="G73" s="22">
+      <c r="E73" s="8">
+        <v>0</v>
+      </c>
+      <c r="F73" s="8">
+        <v>0</v>
+      </c>
+      <c r="G73" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="20">
+      <c r="A74" s="7">
         <v>10</v>
       </c>
-      <c r="B74" s="21">
-        <v>0</v>
-      </c>
-      <c r="C74" s="21">
-        <v>0</v>
-      </c>
-      <c r="D74" s="21">
+      <c r="B74" s="8">
+        <v>0</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0</v>
+      </c>
+      <c r="D74" s="8">
         <v>63</v>
       </c>
-      <c r="E74" s="21">
-        <v>0</v>
-      </c>
-      <c r="F74" s="21">
-        <v>0</v>
-      </c>
-      <c r="G74" s="22">
+      <c r="E74" s="8">
+        <v>0</v>
+      </c>
+      <c r="F74" s="8">
+        <v>0</v>
+      </c>
+      <c r="G74" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="20">
+      <c r="A75" s="7">
         <v>15</v>
       </c>
-      <c r="B75" s="21">
-        <v>0</v>
-      </c>
-      <c r="C75" s="21">
-        <v>0</v>
-      </c>
-      <c r="D75" s="21">
+      <c r="B75" s="8">
+        <v>0</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0</v>
+      </c>
+      <c r="D75" s="8">
         <v>133</v>
       </c>
-      <c r="E75" s="21">
-        <v>0</v>
-      </c>
-      <c r="F75" s="21">
-        <v>0</v>
-      </c>
-      <c r="G75" s="22">
+      <c r="E75" s="8">
+        <v>0</v>
+      </c>
+      <c r="F75" s="8">
+        <v>0</v>
+      </c>
+      <c r="G75" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="20">
+      <c r="A76" s="7">
         <v>20</v>
       </c>
-      <c r="B76" s="21">
-        <v>0</v>
-      </c>
-      <c r="C76" s="21">
-        <v>0</v>
-      </c>
-      <c r="D76" s="21">
+      <c r="B76" s="8">
+        <v>0</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0</v>
+      </c>
+      <c r="D76" s="8">
         <v>228</v>
       </c>
-      <c r="E76" s="21">
-        <v>0</v>
-      </c>
-      <c r="F76" s="21">
-        <v>0</v>
-      </c>
-      <c r="G76" s="22">
+      <c r="E76" s="8">
+        <v>0</v>
+      </c>
+      <c r="F76" s="8">
+        <v>0</v>
+      </c>
+      <c r="G76" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="20">
+      <c r="A77" s="7">
         <v>30</v>
       </c>
-      <c r="B77" s="21">
-        <v>0</v>
-      </c>
-      <c r="C77" s="21">
-        <v>0</v>
-      </c>
-      <c r="D77" s="21">
+      <c r="B77" s="8">
+        <v>0</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0</v>
+      </c>
+      <c r="D77" s="8">
         <v>493</v>
       </c>
-      <c r="E77" s="21">
-        <v>0</v>
-      </c>
-      <c r="F77" s="21">
-        <v>0</v>
-      </c>
-      <c r="G77" s="22">
+      <c r="E77" s="8">
+        <v>0</v>
+      </c>
+      <c r="F77" s="8">
+        <v>0</v>
+      </c>
+      <c r="G77" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="20">
+      <c r="A78" s="7">
         <v>40</v>
       </c>
-      <c r="B78" s="21">
-        <v>0</v>
-      </c>
-      <c r="C78" s="21">
-        <v>0</v>
-      </c>
-      <c r="D78" s="21">
+      <c r="B78" s="8">
+        <v>0</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0</v>
+      </c>
+      <c r="D78" s="8">
         <v>858</v>
       </c>
-      <c r="E78" s="21">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21">
-        <v>0</v>
-      </c>
-      <c r="G78" s="22">
+      <c r="E78" s="8">
+        <v>0</v>
+      </c>
+      <c r="F78" s="8">
+        <v>0</v>
+      </c>
+      <c r="G78" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="20">
+      <c r="A79" s="7">
         <v>50</v>
       </c>
-      <c r="B79" s="21">
-        <v>0</v>
-      </c>
-      <c r="C79" s="21">
-        <v>0</v>
-      </c>
-      <c r="D79" s="21">
+      <c r="B79" s="8">
+        <v>0</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0</v>
+      </c>
+      <c r="D79" s="8">
         <v>1323</v>
       </c>
-      <c r="E79" s="21">
-        <v>0</v>
-      </c>
-      <c r="F79" s="21">
-        <v>0</v>
-      </c>
-      <c r="G79" s="22">
+      <c r="E79" s="8">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8">
+        <v>0</v>
+      </c>
+      <c r="G79" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="20">
+      <c r="A80" s="7">
         <v>60</v>
       </c>
-      <c r="B80" s="21">
-        <v>0</v>
-      </c>
-      <c r="C80" s="21">
-        <v>0</v>
-      </c>
-      <c r="D80" s="21">
+      <c r="B80" s="8">
+        <v>0</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0</v>
+      </c>
+      <c r="D80" s="8">
         <v>1888</v>
       </c>
-      <c r="E80" s="21">
-        <v>0</v>
-      </c>
-      <c r="F80" s="21">
-        <v>0</v>
-      </c>
-      <c r="G80" s="22">
+      <c r="E80" s="8">
+        <v>0</v>
+      </c>
+      <c r="F80" s="8">
+        <v>0</v>
+      </c>
+      <c r="G80" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="20">
+      <c r="A81" s="7">
         <v>70</v>
       </c>
-      <c r="B81" s="21">
-        <v>0</v>
-      </c>
-      <c r="C81" s="21">
-        <v>0</v>
-      </c>
-      <c r="D81" s="21">
+      <c r="B81" s="8">
+        <v>0</v>
+      </c>
+      <c r="C81" s="8">
+        <v>0</v>
+      </c>
+      <c r="D81" s="8">
         <v>2553</v>
       </c>
-      <c r="E81" s="21">
-        <v>0</v>
-      </c>
-      <c r="F81" s="21">
-        <v>0</v>
-      </c>
-      <c r="G81" s="22">
+      <c r="E81" s="8">
+        <v>0</v>
+      </c>
+      <c r="F81" s="8">
+        <v>0</v>
+      </c>
+      <c r="G81" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="20">
+      <c r="A82" s="7">
         <v>80</v>
       </c>
-      <c r="B82" s="21">
-        <v>0</v>
-      </c>
-      <c r="C82" s="21">
-        <v>0</v>
-      </c>
-      <c r="D82" s="21">
+      <c r="B82" s="8">
+        <v>0</v>
+      </c>
+      <c r="C82" s="8">
+        <v>0</v>
+      </c>
+      <c r="D82" s="8">
         <v>3318</v>
       </c>
-      <c r="E82" s="21">
-        <v>0</v>
-      </c>
-      <c r="F82" s="21">
-        <v>0</v>
-      </c>
-      <c r="G82" s="22">
+      <c r="E82" s="8">
+        <v>0</v>
+      </c>
+      <c r="F82" s="8">
+        <v>0</v>
+      </c>
+      <c r="G82" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="20">
+      <c r="A83" s="7">
         <v>100</v>
       </c>
-      <c r="B83" s="21">
+      <c r="B83" s="8">
         <v>0.04</v>
       </c>
-      <c r="C83" s="21">
+      <c r="C83" s="8">
         <v>0.19595899999999999</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D83" s="8">
         <v>5148</v>
       </c>
-      <c r="E83" s="21">
-        <v>0</v>
-      </c>
-      <c r="F83" s="21">
-        <v>0</v>
-      </c>
-      <c r="G83" s="22">
+      <c r="E83" s="8">
+        <v>0</v>
+      </c>
+      <c r="F83" s="8">
+        <v>0</v>
+      </c>
+      <c r="G83" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="20">
+      <c r="A84" s="7">
         <v>150</v>
       </c>
-      <c r="B84" s="21">
+      <c r="B84" s="8">
         <v>0.52</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="8">
         <v>0.49959999999999999</v>
       </c>
-      <c r="D84" s="21">
+      <c r="D84" s="8">
         <v>11473</v>
       </c>
-      <c r="E84" s="21">
-        <v>0</v>
-      </c>
-      <c r="F84" s="21">
-        <v>0</v>
-      </c>
-      <c r="G84" s="22">
+      <c r="E84" s="8">
+        <v>0</v>
+      </c>
+      <c r="F84" s="8">
+        <v>0</v>
+      </c>
+      <c r="G84" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="20">
+      <c r="A85" s="7">
         <v>200</v>
       </c>
-      <c r="B85" s="21">
+      <c r="B85" s="8">
         <v>1.04</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="8">
         <v>0.237487</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D85" s="8">
         <v>20298</v>
       </c>
-      <c r="E85" s="21">
-        <v>0</v>
-      </c>
-      <c r="F85" s="21">
-        <v>0</v>
-      </c>
-      <c r="G85" s="22">
+      <c r="E85" s="8">
+        <v>0</v>
+      </c>
+      <c r="F85" s="8">
+        <v>0</v>
+      </c>
+      <c r="G85" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="20">
+      <c r="A86" s="7">
         <v>300</v>
       </c>
-      <c r="B86" s="21">
+      <c r="B86" s="8">
         <v>3</v>
       </c>
-      <c r="C86" s="21">
-        <v>0</v>
-      </c>
-      <c r="D86" s="21">
+      <c r="C86" s="8">
+        <v>0</v>
+      </c>
+      <c r="D86" s="8">
         <v>45448</v>
       </c>
-      <c r="E86" s="21">
-        <v>0</v>
-      </c>
-      <c r="F86" s="21">
-        <v>0</v>
-      </c>
-      <c r="G86" s="22">
+      <c r="E86" s="8">
+        <v>0</v>
+      </c>
+      <c r="F86" s="8">
+        <v>0</v>
+      </c>
+      <c r="G86" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="20">
+      <c r="A87" s="7">
         <v>400</v>
       </c>
-      <c r="B87" s="21">
+      <c r="B87" s="8">
         <v>8.64</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C87" s="8">
         <v>0.52</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D87" s="8">
         <v>80598</v>
       </c>
-      <c r="E87" s="21">
-        <v>0</v>
-      </c>
-      <c r="F87" s="21">
-        <v>0</v>
-      </c>
-      <c r="G87" s="22">
+      <c r="E87" s="8">
+        <v>0</v>
+      </c>
+      <c r="F87" s="8">
+        <v>0</v>
+      </c>
+      <c r="G87" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="20">
+      <c r="A88" s="7">
         <v>500</v>
       </c>
-      <c r="B88" s="21">
+      <c r="B88" s="8">
         <v>19.600000000000001</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="8">
         <v>0.87178</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D88" s="8">
         <v>125748</v>
       </c>
-      <c r="E88" s="21">
-        <v>0</v>
-      </c>
-      <c r="F88" s="21">
-        <v>0</v>
-      </c>
-      <c r="G88" s="22">
+      <c r="E88" s="8">
+        <v>0</v>
+      </c>
+      <c r="F88" s="8">
+        <v>0</v>
+      </c>
+      <c r="G88" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="20">
+      <c r="A89" s="7">
         <v>600</v>
       </c>
-      <c r="B89" s="21">
+      <c r="B89" s="8">
         <v>37.340000000000003</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="8">
         <v>10.674474</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="8">
         <v>180898</v>
       </c>
-      <c r="E89" s="21">
-        <v>0</v>
-      </c>
-      <c r="F89" s="21">
-        <v>0</v>
-      </c>
-      <c r="G89" s="22">
+      <c r="E89" s="8">
+        <v>0</v>
+      </c>
+      <c r="F89" s="8">
+        <v>0</v>
+      </c>
+      <c r="G89" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="20">
+      <c r="A90" s="7">
         <v>750</v>
       </c>
-      <c r="B90" s="21">
+      <c r="B90" s="8">
         <v>73.36</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="8">
         <v>1.8304100000000001</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="8">
         <v>282373</v>
       </c>
-      <c r="E90" s="21">
-        <v>0</v>
-      </c>
-      <c r="F90" s="21">
-        <v>0</v>
-      </c>
-      <c r="G90" s="22">
+      <c r="E90" s="8">
+        <v>0</v>
+      </c>
+      <c r="F90" s="8">
+        <v>0</v>
+      </c>
+      <c r="G90" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="23">
+      <c r="A91" s="10">
         <v>1000</v>
       </c>
-      <c r="B91" s="24">
+      <c r="B91" s="11">
         <v>186.82</v>
       </c>
-      <c r="C91" s="24">
+      <c r="C91" s="11">
         <v>7.1880179999999996</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="11">
         <v>501498</v>
       </c>
-      <c r="E91" s="24">
-        <v>0</v>
-      </c>
-      <c r="F91" s="24">
-        <v>0</v>
-      </c>
-      <c r="G91" s="25">
+      <c r="E91" s="11">
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
+        <v>0</v>
+      </c>
+      <c r="G91" s="12">
         <v>0</v>
       </c>
     </row>
@@ -38535,15 +38102,15 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="29" t="s">
+      <c r="A116" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="31"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="18"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
@@ -39050,7 +38617,7 @@
   </sheetPr>
   <dimension ref="A1:AC137"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="AB111" sqref="AB111"/>
     </sheetView>
   </sheetViews>
@@ -39071,15 +38638,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -39564,25 +39131,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -40068,15 +39626,15 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
@@ -40562,506 +40120,497 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-    </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="28"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="30"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="21" t="s">
+      <c r="D71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F71" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G71" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="20">
-        <v>0</v>
-      </c>
-      <c r="B72" s="21">
-        <v>0</v>
-      </c>
-      <c r="C72" s="21">
-        <v>0</v>
-      </c>
-      <c r="D72" s="21">
-        <v>0</v>
-      </c>
-      <c r="E72" s="21">
-        <v>0</v>
-      </c>
-      <c r="F72" s="21">
-        <v>0</v>
-      </c>
-      <c r="G72" s="22">
+      <c r="A72" s="7">
+        <v>0</v>
+      </c>
+      <c r="B72" s="8">
+        <v>0</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0</v>
+      </c>
+      <c r="D72" s="8">
+        <v>0</v>
+      </c>
+      <c r="E72" s="8">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0</v>
+      </c>
+      <c r="G72" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="20">
+      <c r="A73" s="7">
         <v>5</v>
       </c>
-      <c r="B73" s="21">
-        <v>0</v>
-      </c>
-      <c r="C73" s="21">
-        <v>0</v>
-      </c>
-      <c r="D73" s="21">
+      <c r="B73" s="8">
+        <v>0</v>
+      </c>
+      <c r="C73" s="8">
+        <v>0</v>
+      </c>
+      <c r="D73" s="8">
         <v>20</v>
       </c>
-      <c r="E73" s="21">
-        <v>0</v>
-      </c>
-      <c r="F73" s="21">
+      <c r="E73" s="8">
+        <v>0</v>
+      </c>
+      <c r="F73" s="8">
         <v>2</v>
       </c>
-      <c r="G73" s="22">
+      <c r="G73" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="20">
+      <c r="A74" s="7">
         <v>10</v>
       </c>
-      <c r="B74" s="21">
-        <v>0</v>
-      </c>
-      <c r="C74" s="21">
-        <v>0</v>
-      </c>
-      <c r="D74" s="21">
+      <c r="B74" s="8">
+        <v>0</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0</v>
+      </c>
+      <c r="D74" s="8">
         <v>68</v>
       </c>
-      <c r="E74" s="21">
-        <v>0</v>
-      </c>
-      <c r="F74" s="21">
+      <c r="E74" s="8">
+        <v>0</v>
+      </c>
+      <c r="F74" s="8">
         <v>5</v>
       </c>
-      <c r="G74" s="22">
+      <c r="G74" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="20">
+      <c r="A75" s="7">
         <v>15</v>
       </c>
-      <c r="B75" s="21">
-        <v>0</v>
-      </c>
-      <c r="C75" s="21">
-        <v>0</v>
-      </c>
-      <c r="D75" s="21">
+      <c r="B75" s="8">
+        <v>0</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0</v>
+      </c>
+      <c r="D75" s="8">
         <v>140</v>
       </c>
-      <c r="E75" s="21">
-        <v>0</v>
-      </c>
-      <c r="F75" s="21">
+      <c r="E75" s="8">
+        <v>0</v>
+      </c>
+      <c r="F75" s="8">
         <v>7</v>
       </c>
-      <c r="G75" s="22">
+      <c r="G75" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="20">
+      <c r="A76" s="7">
         <v>20</v>
       </c>
-      <c r="B76" s="21">
-        <v>0</v>
-      </c>
-      <c r="C76" s="21">
-        <v>0</v>
-      </c>
-      <c r="D76" s="21">
+      <c r="B76" s="8">
+        <v>0</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0</v>
+      </c>
+      <c r="D76" s="8">
         <v>238</v>
       </c>
-      <c r="E76" s="21">
-        <v>0</v>
-      </c>
-      <c r="F76" s="21">
+      <c r="E76" s="8">
+        <v>0</v>
+      </c>
+      <c r="F76" s="8">
         <v>10</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G76" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="20">
+      <c r="A77" s="7">
         <v>30</v>
       </c>
-      <c r="B77" s="21">
-        <v>0</v>
-      </c>
-      <c r="C77" s="21">
-        <v>0</v>
-      </c>
-      <c r="D77" s="21">
+      <c r="B77" s="8">
+        <v>0</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0</v>
+      </c>
+      <c r="D77" s="8">
         <v>508</v>
       </c>
-      <c r="E77" s="21">
-        <v>0</v>
-      </c>
-      <c r="F77" s="21">
+      <c r="E77" s="8">
+        <v>0</v>
+      </c>
+      <c r="F77" s="8">
         <v>15</v>
       </c>
-      <c r="G77" s="22">
+      <c r="G77" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="20">
+      <c r="A78" s="7">
         <v>40</v>
       </c>
-      <c r="B78" s="21">
-        <v>0</v>
-      </c>
-      <c r="C78" s="21">
-        <v>0</v>
-      </c>
-      <c r="D78" s="21">
+      <c r="B78" s="8">
+        <v>0</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0</v>
+      </c>
+      <c r="D78" s="8">
         <v>878</v>
       </c>
-      <c r="E78" s="21">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21">
+      <c r="E78" s="8">
+        <v>0</v>
+      </c>
+      <c r="F78" s="8">
         <v>20</v>
       </c>
-      <c r="G78" s="22">
+      <c r="G78" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="20">
+      <c r="A79" s="7">
         <v>50</v>
       </c>
-      <c r="B79" s="21">
-        <v>0</v>
-      </c>
-      <c r="C79" s="21">
-        <v>0</v>
-      </c>
-      <c r="D79" s="21">
+      <c r="B79" s="8">
+        <v>0</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0</v>
+      </c>
+      <c r="D79" s="8">
         <v>1348</v>
       </c>
-      <c r="E79" s="21">
-        <v>0</v>
-      </c>
-      <c r="F79" s="21">
+      <c r="E79" s="8">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8">
         <v>25</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G79" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="20">
+      <c r="A80" s="7">
         <v>60</v>
       </c>
-      <c r="B80" s="21">
-        <v>0</v>
-      </c>
-      <c r="C80" s="21">
-        <v>0</v>
-      </c>
-      <c r="D80" s="21">
+      <c r="B80" s="8">
+        <v>0</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0</v>
+      </c>
+      <c r="D80" s="8">
         <v>1918</v>
       </c>
-      <c r="E80" s="21">
-        <v>0</v>
-      </c>
-      <c r="F80" s="21">
+      <c r="E80" s="8">
+        <v>0</v>
+      </c>
+      <c r="F80" s="8">
         <v>30</v>
       </c>
-      <c r="G80" s="22">
+      <c r="G80" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="20">
+      <c r="A81" s="7">
         <v>70</v>
       </c>
-      <c r="B81" s="21">
-        <v>0</v>
-      </c>
-      <c r="C81" s="21">
-        <v>0</v>
-      </c>
-      <c r="D81" s="21">
+      <c r="B81" s="8">
+        <v>0</v>
+      </c>
+      <c r="C81" s="8">
+        <v>0</v>
+      </c>
+      <c r="D81" s="8">
         <v>2588</v>
       </c>
-      <c r="E81" s="21">
-        <v>0</v>
-      </c>
-      <c r="F81" s="21">
+      <c r="E81" s="8">
+        <v>0</v>
+      </c>
+      <c r="F81" s="8">
         <v>35</v>
       </c>
-      <c r="G81" s="22">
+      <c r="G81" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="20">
+      <c r="A82" s="7">
         <v>80</v>
       </c>
-      <c r="B82" s="21">
-        <v>0</v>
-      </c>
-      <c r="C82" s="21">
-        <v>0</v>
-      </c>
-      <c r="D82" s="21">
+      <c r="B82" s="8">
+        <v>0</v>
+      </c>
+      <c r="C82" s="8">
+        <v>0</v>
+      </c>
+      <c r="D82" s="8">
         <v>3358</v>
       </c>
-      <c r="E82" s="21">
-        <v>0</v>
-      </c>
-      <c r="F82" s="21">
+      <c r="E82" s="8">
+        <v>0</v>
+      </c>
+      <c r="F82" s="8">
         <v>40</v>
       </c>
-      <c r="G82" s="22">
+      <c r="G82" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="20">
+      <c r="A83" s="7">
         <v>100</v>
       </c>
-      <c r="B83" s="21">
-        <v>0</v>
-      </c>
-      <c r="C83" s="21">
-        <v>0</v>
-      </c>
-      <c r="D83" s="21">
+      <c r="B83" s="8">
+        <v>0</v>
+      </c>
+      <c r="C83" s="8">
+        <v>0</v>
+      </c>
+      <c r="D83" s="8">
         <v>5198</v>
       </c>
-      <c r="E83" s="21">
-        <v>0</v>
-      </c>
-      <c r="F83" s="21">
+      <c r="E83" s="8">
+        <v>0</v>
+      </c>
+      <c r="F83" s="8">
         <v>50</v>
       </c>
-      <c r="G83" s="22">
+      <c r="G83" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="20">
+      <c r="A84" s="7">
         <v>150</v>
       </c>
-      <c r="B84" s="21">
+      <c r="B84" s="8">
         <v>1</v>
       </c>
-      <c r="C84" s="21">
-        <v>0</v>
-      </c>
-      <c r="D84" s="21">
+      <c r="C84" s="8">
+        <v>0</v>
+      </c>
+      <c r="D84" s="8">
         <v>11548</v>
       </c>
-      <c r="E84" s="21">
-        <v>0</v>
-      </c>
-      <c r="F84" s="21">
+      <c r="E84" s="8">
+        <v>0</v>
+      </c>
+      <c r="F84" s="8">
         <v>75</v>
       </c>
-      <c r="G84" s="22">
+      <c r="G84" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="20">
+      <c r="A85" s="7">
         <v>200</v>
       </c>
-      <c r="B85" s="21">
+      <c r="B85" s="8">
         <v>1.28</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="8">
         <v>0.44899899999999998</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D85" s="8">
         <v>20398</v>
       </c>
-      <c r="E85" s="21">
-        <v>0</v>
-      </c>
-      <c r="F85" s="21">
+      <c r="E85" s="8">
+        <v>0</v>
+      </c>
+      <c r="F85" s="8">
         <v>100</v>
       </c>
-      <c r="G85" s="22">
+      <c r="G85" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="20">
+      <c r="A86" s="7">
         <v>300</v>
       </c>
-      <c r="B86" s="21">
+      <c r="B86" s="8">
         <v>4.04</v>
       </c>
-      <c r="C86" s="21">
+      <c r="C86" s="8">
         <v>0.19595899999999999</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="8">
         <v>45598</v>
       </c>
-      <c r="E86" s="21">
-        <v>0</v>
-      </c>
-      <c r="F86" s="21">
+      <c r="E86" s="8">
+        <v>0</v>
+      </c>
+      <c r="F86" s="8">
         <v>150</v>
       </c>
-      <c r="G86" s="22">
+      <c r="G86" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="20">
+      <c r="A87" s="7">
         <v>400</v>
       </c>
-      <c r="B87" s="21">
+      <c r="B87" s="8">
         <v>12.44</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C87" s="8">
         <v>0.60531000000000001</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D87" s="8">
         <v>80798</v>
       </c>
-      <c r="E87" s="21">
-        <v>0</v>
-      </c>
-      <c r="F87" s="21">
+      <c r="E87" s="8">
+        <v>0</v>
+      </c>
+      <c r="F87" s="8">
         <v>200</v>
       </c>
-      <c r="G87" s="22">
+      <c r="G87" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="20">
+      <c r="A88" s="7">
         <v>500</v>
       </c>
-      <c r="B88" s="21">
+      <c r="B88" s="8">
         <v>27.6</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="8">
         <v>1.4560219999999999</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D88" s="8">
         <v>125998</v>
       </c>
-      <c r="E88" s="21">
-        <v>0</v>
-      </c>
-      <c r="F88" s="21">
+      <c r="E88" s="8">
+        <v>0</v>
+      </c>
+      <c r="F88" s="8">
         <v>250</v>
       </c>
-      <c r="G88" s="22">
+      <c r="G88" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="20">
+      <c r="A89" s="7">
         <v>600</v>
       </c>
-      <c r="B89" s="21">
+      <c r="B89" s="8">
         <v>49.16</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="8">
         <v>0.41761199999999998</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="8">
         <v>181198</v>
       </c>
-      <c r="E89" s="21">
-        <v>0</v>
-      </c>
-      <c r="F89" s="21">
+      <c r="E89" s="8">
+        <v>0</v>
+      </c>
+      <c r="F89" s="8">
         <v>300</v>
       </c>
-      <c r="G89" s="22">
+      <c r="G89" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="20">
+      <c r="A90" s="7">
         <v>750</v>
       </c>
-      <c r="B90" s="21">
+      <c r="B90" s="8">
         <v>102.14</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="8">
         <v>3.14331</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="8">
         <v>282748</v>
       </c>
-      <c r="E90" s="21">
-        <v>0</v>
-      </c>
-      <c r="F90" s="21">
+      <c r="E90" s="8">
+        <v>0</v>
+      </c>
+      <c r="F90" s="8">
         <v>375</v>
       </c>
-      <c r="G90" s="22">
+      <c r="G90" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="23">
+      <c r="A91" s="10">
         <v>1000</v>
       </c>
-      <c r="B91" s="24">
+      <c r="B91" s="11">
         <v>257.76</v>
       </c>
-      <c r="C91" s="24">
+      <c r="C91" s="11">
         <v>10.702448</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="11">
         <v>501998</v>
       </c>
-      <c r="E91" s="24">
-        <v>0</v>
-      </c>
-      <c r="F91" s="24">
+      <c r="E91" s="11">
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
         <v>500</v>
       </c>
-      <c r="G91" s="25">
+      <c r="G91" s="12">
         <v>0</v>
       </c>
     </row>
@@ -41560,15 +41109,15 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="29" t="s">
+      <c r="A116" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="31"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="18"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
@@ -42055,12 +41604,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A116:G116"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A47:G47"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A93:G93"/>
-    <mergeCell ref="A116:G116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -42075,7 +41624,7 @@
   </sheetPr>
   <dimension ref="A1:AC137"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
@@ -42096,15 +41645,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -42589,25 +42138,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -43093,15 +42633,15 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
@@ -43587,506 +43127,497 @@
         <v>26.231470000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-    </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="28"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="30"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="21" t="s">
+      <c r="D71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F71" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G71" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="20">
-        <v>0</v>
-      </c>
-      <c r="B72" s="21">
-        <v>0</v>
-      </c>
-      <c r="C72" s="21">
-        <v>0</v>
-      </c>
-      <c r="D72" s="21">
-        <v>0</v>
-      </c>
-      <c r="E72" s="21">
-        <v>0</v>
-      </c>
-      <c r="F72" s="21">
-        <v>0</v>
-      </c>
-      <c r="G72" s="22">
+      <c r="A72" s="7">
+        <v>0</v>
+      </c>
+      <c r="B72" s="8">
+        <v>0</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0</v>
+      </c>
+      <c r="D72" s="8">
+        <v>0</v>
+      </c>
+      <c r="E72" s="8">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0</v>
+      </c>
+      <c r="G72" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="20">
+      <c r="A73" s="7">
         <v>5</v>
       </c>
-      <c r="B73" s="21">
-        <v>0</v>
-      </c>
-      <c r="C73" s="21">
-        <v>0</v>
-      </c>
-      <c r="D73" s="21">
+      <c r="B73" s="8">
+        <v>0</v>
+      </c>
+      <c r="C73" s="8">
+        <v>0</v>
+      </c>
+      <c r="D73" s="8">
         <v>19.66</v>
       </c>
-      <c r="E73" s="21">
+      <c r="E73" s="8">
         <v>1.088301</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="8">
         <v>3.18</v>
       </c>
-      <c r="G73" s="22">
+      <c r="G73" s="9">
         <v>1.033247</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="20">
+      <c r="A74" s="7">
         <v>10</v>
       </c>
-      <c r="B74" s="21">
-        <v>0</v>
-      </c>
-      <c r="C74" s="21">
-        <v>0</v>
-      </c>
-      <c r="D74" s="21">
+      <c r="B74" s="8">
+        <v>0</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0</v>
+      </c>
+      <c r="D74" s="8">
         <v>53.5</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="8">
         <v>3.8170670000000002</v>
       </c>
-      <c r="F74" s="21">
+      <c r="F74" s="8">
         <v>9.74</v>
       </c>
-      <c r="G74" s="22">
+      <c r="G74" s="9">
         <v>1.786729</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="20">
+      <c r="A75" s="7">
         <v>15</v>
       </c>
-      <c r="B75" s="21">
-        <v>0</v>
-      </c>
-      <c r="C75" s="21">
-        <v>0</v>
-      </c>
-      <c r="D75" s="21">
+      <c r="B75" s="8">
+        <v>0</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0</v>
+      </c>
+      <c r="D75" s="8">
         <v>92.92</v>
       </c>
-      <c r="E75" s="21">
+      <c r="E75" s="8">
         <v>6.0161119999999997</v>
       </c>
-      <c r="F75" s="21">
+      <c r="F75" s="8">
         <v>17.62</v>
       </c>
-      <c r="G75" s="22">
+      <c r="G75" s="9">
         <v>1.864296</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="20">
+      <c r="A76" s="7">
         <v>20</v>
       </c>
-      <c r="B76" s="21">
-        <v>0</v>
-      </c>
-      <c r="C76" s="21">
-        <v>0</v>
-      </c>
-      <c r="D76" s="21">
+      <c r="B76" s="8">
+        <v>0</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0</v>
+      </c>
+      <c r="D76" s="8">
         <v>134.08000000000001</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E76" s="8">
         <v>9.591329</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F76" s="8">
         <v>26.46</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G76" s="9">
         <v>2.1091229999999999</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="20">
+      <c r="A77" s="7">
         <v>30</v>
       </c>
-      <c r="B77" s="21">
-        <v>0</v>
-      </c>
-      <c r="C77" s="21">
-        <v>0</v>
-      </c>
-      <c r="D77" s="21">
+      <c r="B77" s="8">
+        <v>0</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0</v>
+      </c>
+      <c r="D77" s="8">
         <v>223.52</v>
       </c>
-      <c r="E77" s="21">
+      <c r="E77" s="8">
         <v>12.598794</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="8">
         <v>46.88</v>
       </c>
-      <c r="G77" s="22">
+      <c r="G77" s="9">
         <v>2.4383599999999999</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="20">
+      <c r="A78" s="7">
         <v>40</v>
       </c>
-      <c r="B78" s="21">
-        <v>0</v>
-      </c>
-      <c r="C78" s="21">
-        <v>0</v>
-      </c>
-      <c r="D78" s="21">
+      <c r="B78" s="8">
+        <v>0</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0</v>
+      </c>
+      <c r="D78" s="8">
         <v>321.7</v>
       </c>
-      <c r="E78" s="21">
+      <c r="E78" s="8">
         <v>16.976749000000002</v>
       </c>
-      <c r="F78" s="21">
+      <c r="F78" s="8">
         <v>68.819999999999993</v>
       </c>
-      <c r="G78" s="22">
+      <c r="G78" s="9">
         <v>2.8191489999999999</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="20">
+      <c r="A79" s="7">
         <v>50</v>
       </c>
-      <c r="B79" s="21">
-        <v>0</v>
-      </c>
-      <c r="C79" s="21">
-        <v>0</v>
-      </c>
-      <c r="D79" s="21">
+      <c r="B79" s="8">
+        <v>0</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0</v>
+      </c>
+      <c r="D79" s="8">
         <v>418.26</v>
       </c>
-      <c r="E79" s="21">
+      <c r="E79" s="8">
         <v>24.399025000000002</v>
       </c>
-      <c r="F79" s="21">
+      <c r="F79" s="8">
         <v>93.72</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G79" s="9">
         <v>3.441163</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="20">
+      <c r="A80" s="7">
         <v>60</v>
       </c>
-      <c r="B80" s="21">
-        <v>0</v>
-      </c>
-      <c r="C80" s="21">
-        <v>0</v>
-      </c>
-      <c r="D80" s="21">
+      <c r="B80" s="8">
+        <v>0</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0</v>
+      </c>
+      <c r="D80" s="8">
         <v>518.28</v>
       </c>
-      <c r="E80" s="21">
+      <c r="E80" s="8">
         <v>27.322547</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F80" s="8">
         <v>119.48</v>
       </c>
-      <c r="G80" s="22">
+      <c r="G80" s="9">
         <v>4.5397800000000004</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="20">
+      <c r="A81" s="7">
         <v>70</v>
       </c>
-      <c r="B81" s="21">
-        <v>0</v>
-      </c>
-      <c r="C81" s="21">
-        <v>0</v>
-      </c>
-      <c r="D81" s="21">
+      <c r="B81" s="8">
+        <v>0</v>
+      </c>
+      <c r="C81" s="8">
+        <v>0</v>
+      </c>
+      <c r="D81" s="8">
         <v>629.28</v>
       </c>
-      <c r="E81" s="21">
+      <c r="E81" s="8">
         <v>25.805457000000001</v>
       </c>
-      <c r="F81" s="21">
+      <c r="F81" s="8">
         <v>145.96</v>
       </c>
-      <c r="G81" s="22">
+      <c r="G81" s="9">
         <v>3.6603819999999998</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="20">
+      <c r="A82" s="7">
         <v>80</v>
       </c>
-      <c r="B82" s="21">
-        <v>0</v>
-      </c>
-      <c r="C82" s="21">
-        <v>0</v>
-      </c>
-      <c r="D82" s="21">
+      <c r="B82" s="8">
+        <v>0</v>
+      </c>
+      <c r="C82" s="8">
+        <v>0</v>
+      </c>
+      <c r="D82" s="8">
         <v>733.66</v>
       </c>
-      <c r="E82" s="21">
+      <c r="E82" s="8">
         <v>38.434156999999999</v>
       </c>
-      <c r="F82" s="21">
+      <c r="F82" s="8">
         <v>173.68</v>
       </c>
-      <c r="G82" s="22">
+      <c r="G82" s="9">
         <v>4.5230079999999999</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="20">
+      <c r="A83" s="7">
         <v>100</v>
       </c>
-      <c r="B83" s="21">
-        <v>0</v>
-      </c>
-      <c r="C83" s="21">
-        <v>0</v>
-      </c>
-      <c r="D83" s="21">
+      <c r="B83" s="8">
+        <v>0</v>
+      </c>
+      <c r="C83" s="8">
+        <v>0</v>
+      </c>
+      <c r="D83" s="8">
         <v>952.72</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="8">
         <v>54.664445000000001</v>
       </c>
-      <c r="F83" s="21">
+      <c r="F83" s="8">
         <v>232.66</v>
       </c>
-      <c r="G83" s="22">
+      <c r="G83" s="9">
         <v>4.925891</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="20">
+      <c r="A84" s="7">
         <v>150</v>
       </c>
-      <c r="B84" s="21">
-        <v>0</v>
-      </c>
-      <c r="C84" s="21">
-        <v>0</v>
-      </c>
-      <c r="D84" s="21">
+      <c r="B84" s="8">
+        <v>0</v>
+      </c>
+      <c r="C84" s="8">
+        <v>0</v>
+      </c>
+      <c r="D84" s="8">
         <v>1518.82</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="8">
         <v>82.312742999999998</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F84" s="8">
         <v>389.98</v>
       </c>
-      <c r="G84" s="22">
+      <c r="G84" s="9">
         <v>7.3389100000000003</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="20">
+      <c r="A85" s="7">
         <v>200</v>
       </c>
-      <c r="B85" s="21">
-        <v>0</v>
-      </c>
-      <c r="C85" s="21">
-        <v>0</v>
-      </c>
-      <c r="D85" s="21">
+      <c r="B85" s="8">
+        <v>0</v>
+      </c>
+      <c r="C85" s="8">
+        <v>0</v>
+      </c>
+      <c r="D85" s="8">
         <v>2100.92</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="8">
         <v>81.101132000000007</v>
       </c>
-      <c r="F85" s="21">
+      <c r="F85" s="8">
         <v>558.88</v>
       </c>
-      <c r="G85" s="22">
+      <c r="G85" s="9">
         <v>7.5647599999999997</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="20">
+      <c r="A86" s="7">
         <v>300</v>
       </c>
-      <c r="B86" s="21">
-        <v>0</v>
-      </c>
-      <c r="C86" s="21">
-        <v>0</v>
-      </c>
-      <c r="D86" s="21">
+      <c r="B86" s="8">
+        <v>0</v>
+      </c>
+      <c r="C86" s="8">
+        <v>0</v>
+      </c>
+      <c r="D86" s="8">
         <v>3343.74</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E86" s="8">
         <v>112.38929</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="8">
         <v>924.24</v>
       </c>
-      <c r="G86" s="22">
+      <c r="G86" s="9">
         <v>11.286381</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="20">
+      <c r="A87" s="7">
         <v>400</v>
       </c>
-      <c r="B87" s="21">
+      <c r="B87" s="8">
         <v>1</v>
       </c>
-      <c r="C87" s="21">
-        <v>0</v>
-      </c>
-      <c r="D87" s="21">
+      <c r="C87" s="8">
+        <v>0</v>
+      </c>
+      <c r="D87" s="8">
         <v>4630.62</v>
       </c>
-      <c r="E87" s="21">
+      <c r="E87" s="8">
         <v>180.353419</v>
       </c>
-      <c r="F87" s="21">
+      <c r="F87" s="8">
         <v>1310.44</v>
       </c>
-      <c r="G87" s="22">
+      <c r="G87" s="9">
         <v>11.007561000000001</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="20">
+      <c r="A88" s="7">
         <v>500</v>
       </c>
-      <c r="B88" s="21">
+      <c r="B88" s="8">
         <v>2</v>
       </c>
-      <c r="C88" s="21">
-        <v>0</v>
-      </c>
-      <c r="D88" s="21">
+      <c r="C88" s="8">
+        <v>0</v>
+      </c>
+      <c r="D88" s="8">
         <v>5947.6</v>
       </c>
-      <c r="E88" s="21">
+      <c r="E88" s="8">
         <v>263.33666699999998</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F88" s="8">
         <v>1719.2</v>
       </c>
-      <c r="G88" s="22">
+      <c r="G88" s="9">
         <v>16.187650000000001</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="20">
+      <c r="A89" s="7">
         <v>600</v>
       </c>
-      <c r="B89" s="21">
+      <c r="B89" s="8">
         <v>3.02</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="8">
         <v>7326.6</v>
       </c>
-      <c r="E89" s="21">
+      <c r="E89" s="8">
         <v>344.19790799999998</v>
       </c>
-      <c r="F89" s="21">
+      <c r="F89" s="8">
         <v>2137.3200000000002</v>
       </c>
-      <c r="G89" s="22">
+      <c r="G89" s="9">
         <v>18.765329999999999</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="20">
+      <c r="A90" s="7">
         <v>750</v>
       </c>
-      <c r="B90" s="21">
+      <c r="B90" s="8">
         <v>5.08</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="8">
         <v>0.27129300000000001</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="8">
         <v>9352.1</v>
       </c>
-      <c r="E90" s="21">
+      <c r="E90" s="8">
         <v>306.82198399999999</v>
       </c>
-      <c r="F90" s="21">
+      <c r="F90" s="8">
         <v>2791.8</v>
       </c>
-      <c r="G90" s="22">
+      <c r="G90" s="9">
         <v>19.069347</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="23">
+      <c r="A91" s="10">
         <v>1000</v>
       </c>
-      <c r="B91" s="24">
+      <c r="B91" s="11">
         <v>10.52</v>
       </c>
-      <c r="C91" s="24">
+      <c r="C91" s="11">
         <v>0.53814499999999998</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="11">
         <v>12933.18</v>
       </c>
-      <c r="E91" s="24">
+      <c r="E91" s="11">
         <v>422.65928100000002</v>
       </c>
-      <c r="F91" s="24">
+      <c r="F91" s="11">
         <v>3931.76</v>
       </c>
-      <c r="G91" s="25">
+      <c r="G91" s="12">
         <v>26.407240999999999</v>
       </c>
     </row>
@@ -44585,15 +44116,15 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="29" t="s">
+      <c r="A116" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="31"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="18"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
@@ -45080,12 +44611,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A116:G116"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A47:G47"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A93:G93"/>
-    <mergeCell ref="A116:G116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -45100,8 +44631,8 @@
   </sheetPr>
   <dimension ref="A1:AC137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB67" sqref="AB67"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45121,15 +44652,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -45614,25 +45145,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -46118,15 +45640,15 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
@@ -46612,506 +46134,497 @@
         <v>39.161225999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-    </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="28"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="30"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="21" t="s">
+      <c r="D71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F71" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G71" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="20">
-        <v>0</v>
-      </c>
-      <c r="B72" s="21">
-        <v>0</v>
-      </c>
-      <c r="C72" s="21">
-        <v>0</v>
-      </c>
-      <c r="D72" s="21">
-        <v>0</v>
-      </c>
-      <c r="E72" s="21">
-        <v>0</v>
-      </c>
-      <c r="F72" s="21">
-        <v>0</v>
-      </c>
-      <c r="G72" s="22">
+      <c r="A72" s="7">
+        <v>0</v>
+      </c>
+      <c r="B72" s="8">
+        <v>0</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0</v>
+      </c>
+      <c r="D72" s="8">
+        <v>0</v>
+      </c>
+      <c r="E72" s="8">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0</v>
+      </c>
+      <c r="G72" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="20">
+      <c r="A73" s="7">
         <v>5</v>
       </c>
-      <c r="B73" s="21">
-        <v>0</v>
-      </c>
-      <c r="C73" s="21">
-        <v>0</v>
-      </c>
-      <c r="D73" s="21">
+      <c r="B73" s="8">
+        <v>0</v>
+      </c>
+      <c r="C73" s="8">
+        <v>0</v>
+      </c>
+      <c r="D73" s="8">
         <v>20.04</v>
       </c>
-      <c r="E73" s="21">
+      <c r="E73" s="8">
         <v>1.1128340000000001</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="8">
         <v>2.86</v>
       </c>
-      <c r="G73" s="22">
+      <c r="G73" s="9">
         <v>0.98</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="20">
+      <c r="A74" s="7">
         <v>10</v>
       </c>
-      <c r="B74" s="21">
-        <v>0</v>
-      </c>
-      <c r="C74" s="21">
-        <v>0</v>
-      </c>
-      <c r="D74" s="21">
+      <c r="B74" s="8">
+        <v>0</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0</v>
+      </c>
+      <c r="D74" s="8">
         <v>55.26</v>
       </c>
-      <c r="E74" s="21">
+      <c r="E74" s="8">
         <v>3.953783</v>
       </c>
-      <c r="F74" s="21">
+      <c r="F74" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G74" s="22">
+      <c r="G74" s="9">
         <v>1.652271</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="20">
+      <c r="A75" s="7">
         <v>15</v>
       </c>
-      <c r="B75" s="21">
-        <v>0</v>
-      </c>
-      <c r="C75" s="21">
-        <v>0</v>
-      </c>
-      <c r="D75" s="21">
+      <c r="B75" s="8">
+        <v>0</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0</v>
+      </c>
+      <c r="D75" s="8">
         <v>95.9</v>
       </c>
-      <c r="E75" s="21">
+      <c r="E75" s="8">
         <v>8.4386019999999995</v>
       </c>
-      <c r="F75" s="21">
+      <c r="F75" s="8">
         <v>14.6</v>
       </c>
-      <c r="G75" s="22">
+      <c r="G75" s="9">
         <v>1.732051</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="20">
+      <c r="A76" s="7">
         <v>20</v>
       </c>
-      <c r="B76" s="21">
-        <v>0</v>
-      </c>
-      <c r="C76" s="21">
-        <v>0</v>
-      </c>
-      <c r="D76" s="21">
+      <c r="B76" s="8">
+        <v>0</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0</v>
+      </c>
+      <c r="D76" s="8">
         <v>139.08000000000001</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E76" s="8">
         <v>10.380443</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F76" s="8">
         <v>21.46</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G76" s="9">
         <v>2.434831</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="20">
+      <c r="A77" s="7">
         <v>30</v>
       </c>
-      <c r="B77" s="21">
-        <v>0</v>
-      </c>
-      <c r="C77" s="21">
-        <v>0</v>
-      </c>
-      <c r="D77" s="21">
+      <c r="B77" s="8">
+        <v>0</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0</v>
+      </c>
+      <c r="D77" s="8">
         <v>234.3</v>
       </c>
-      <c r="E77" s="21">
+      <c r="E77" s="8">
         <v>13.664918999999999</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="8">
         <v>36.08</v>
       </c>
-      <c r="G77" s="22">
+      <c r="G77" s="9">
         <v>2.6895349999999998</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="20">
+      <c r="A78" s="7">
         <v>40</v>
       </c>
-      <c r="B78" s="21">
-        <v>0</v>
-      </c>
-      <c r="C78" s="21">
-        <v>0</v>
-      </c>
-      <c r="D78" s="21">
+      <c r="B78" s="8">
+        <v>0</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0</v>
+      </c>
+      <c r="D78" s="8">
         <v>336.36</v>
       </c>
-      <c r="E78" s="21">
+      <c r="E78" s="8">
         <v>26.189128</v>
       </c>
-      <c r="F78" s="21">
+      <c r="F78" s="8">
         <v>51.46</v>
       </c>
-      <c r="G78" s="22">
+      <c r="G78" s="9">
         <v>3.6288290000000001</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="20">
+      <c r="A79" s="7">
         <v>50</v>
       </c>
-      <c r="B79" s="21">
-        <v>0</v>
-      </c>
-      <c r="C79" s="21">
-        <v>0</v>
-      </c>
-      <c r="D79" s="21">
+      <c r="B79" s="8">
+        <v>0</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0</v>
+      </c>
+      <c r="D79" s="8">
         <v>439.8</v>
       </c>
-      <c r="E79" s="21">
+      <c r="E79" s="8">
         <v>31.256359</v>
       </c>
-      <c r="F79" s="21">
+      <c r="F79" s="8">
         <v>68.34</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G79" s="9">
         <v>4.2736869999999998</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="20">
+      <c r="A80" s="7">
         <v>60</v>
       </c>
-      <c r="B80" s="21">
-        <v>0</v>
-      </c>
-      <c r="C80" s="21">
-        <v>0</v>
-      </c>
-      <c r="D80" s="21">
+      <c r="B80" s="8">
+        <v>0</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0</v>
+      </c>
+      <c r="D80" s="8">
         <v>557.9</v>
       </c>
-      <c r="E80" s="21">
+      <c r="E80" s="8">
         <v>33.665560999999997</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F80" s="8">
         <v>85.1</v>
       </c>
-      <c r="G80" s="22">
+      <c r="G80" s="9">
         <v>3.9711460000000001</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="20">
+      <c r="A81" s="7">
         <v>70</v>
       </c>
-      <c r="B81" s="21">
-        <v>0</v>
-      </c>
-      <c r="C81" s="21">
-        <v>0</v>
-      </c>
-      <c r="D81" s="21">
+      <c r="B81" s="8">
+        <v>0</v>
+      </c>
+      <c r="C81" s="8">
+        <v>0</v>
+      </c>
+      <c r="D81" s="8">
         <v>685.48</v>
       </c>
-      <c r="E81" s="21">
+      <c r="E81" s="8">
         <v>48.551102999999998</v>
       </c>
-      <c r="F81" s="21">
+      <c r="F81" s="8">
         <v>103.88</v>
       </c>
-      <c r="G81" s="22">
+      <c r="G81" s="9">
         <v>4.5940830000000004</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="20">
+      <c r="A82" s="7">
         <v>80</v>
       </c>
-      <c r="B82" s="21">
-        <v>0</v>
-      </c>
-      <c r="C82" s="21">
-        <v>0</v>
-      </c>
-      <c r="D82" s="21">
+      <c r="B82" s="8">
+        <v>0</v>
+      </c>
+      <c r="C82" s="8">
+        <v>0</v>
+      </c>
+      <c r="D82" s="8">
         <v>808.22</v>
       </c>
-      <c r="E82" s="21">
+      <c r="E82" s="8">
         <v>48.166913999999998</v>
       </c>
-      <c r="F82" s="21">
+      <c r="F82" s="8">
         <v>120.52</v>
       </c>
-      <c r="G82" s="22">
+      <c r="G82" s="9">
         <v>5.2848459999999999</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="20">
+      <c r="A83" s="7">
         <v>100</v>
       </c>
-      <c r="B83" s="21">
-        <v>0</v>
-      </c>
-      <c r="C83" s="21">
-        <v>0</v>
-      </c>
-      <c r="D83" s="21">
+      <c r="B83" s="8">
+        <v>0</v>
+      </c>
+      <c r="C83" s="8">
+        <v>0</v>
+      </c>
+      <c r="D83" s="8">
         <v>1058.3800000000001</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="8">
         <v>63.065961999999999</v>
       </c>
-      <c r="F83" s="21">
+      <c r="F83" s="8">
         <v>157.32</v>
       </c>
-      <c r="G83" s="22">
+      <c r="G83" s="9">
         <v>6.4913480000000003</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="20">
+      <c r="A84" s="7">
         <v>150</v>
       </c>
-      <c r="B84" s="21">
-        <v>0</v>
-      </c>
-      <c r="C84" s="21">
-        <v>0</v>
-      </c>
-      <c r="D84" s="21">
+      <c r="B84" s="8">
+        <v>0</v>
+      </c>
+      <c r="C84" s="8">
+        <v>0</v>
+      </c>
+      <c r="D84" s="8">
         <v>1703.16</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="8">
         <v>109.838128</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F84" s="8">
         <v>258.48</v>
       </c>
-      <c r="G84" s="22">
+      <c r="G84" s="9">
         <v>7.5319050000000001</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="20">
+      <c r="A85" s="7">
         <v>200</v>
       </c>
-      <c r="B85" s="21">
-        <v>0</v>
-      </c>
-      <c r="C85" s="21">
-        <v>0</v>
-      </c>
-      <c r="D85" s="21">
+      <c r="B85" s="8">
+        <v>0</v>
+      </c>
+      <c r="C85" s="8">
+        <v>0</v>
+      </c>
+      <c r="D85" s="8">
         <v>2415.1</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="8">
         <v>130.55485400000001</v>
       </c>
-      <c r="F85" s="21">
+      <c r="F85" s="8">
         <v>363.9</v>
       </c>
-      <c r="G85" s="22">
+      <c r="G85" s="9">
         <v>11.395174000000001</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="20">
+      <c r="A86" s="7">
         <v>300</v>
       </c>
-      <c r="B86" s="21">
-        <v>0</v>
-      </c>
-      <c r="C86" s="21">
-        <v>0</v>
-      </c>
-      <c r="D86" s="21">
+      <c r="B86" s="8">
+        <v>0</v>
+      </c>
+      <c r="C86" s="8">
+        <v>0</v>
+      </c>
+      <c r="D86" s="8">
         <v>3886.86</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E86" s="8">
         <v>171.960927</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="8">
         <v>584.9</v>
       </c>
-      <c r="G86" s="22">
+      <c r="G86" s="9">
         <v>13.165485</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="20">
+      <c r="A87" s="7">
         <v>400</v>
       </c>
-      <c r="B87" s="21">
+      <c r="B87" s="8">
         <v>1</v>
       </c>
-      <c r="C87" s="21">
-        <v>0</v>
-      </c>
-      <c r="D87" s="21">
+      <c r="C87" s="8">
+        <v>0</v>
+      </c>
+      <c r="D87" s="8">
         <v>5481.42</v>
       </c>
-      <c r="E87" s="21">
+      <c r="E87" s="8">
         <v>300.30964599999999</v>
       </c>
-      <c r="F87" s="21">
+      <c r="F87" s="8">
         <v>812.9</v>
       </c>
-      <c r="G87" s="22">
+      <c r="G87" s="9">
         <v>15.130433</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="20">
+      <c r="A88" s="7">
         <v>500</v>
       </c>
-      <c r="B88" s="21">
+      <c r="B88" s="8">
         <v>1.88</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="8">
         <v>0.32496199999999997</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D88" s="8">
         <v>7031.06</v>
       </c>
-      <c r="E88" s="21">
+      <c r="E88" s="8">
         <v>338.398842</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F88" s="8">
         <v>1057.9000000000001</v>
       </c>
-      <c r="G88" s="22">
+      <c r="G88" s="9">
         <v>20.768485999999999</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="20">
+      <c r="A89" s="7">
         <v>600</v>
       </c>
-      <c r="B89" s="21">
+      <c r="B89" s="8">
         <v>2.96</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="8">
         <v>0.19595899999999999</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="8">
         <v>8713.2999999999993</v>
       </c>
-      <c r="E89" s="21">
+      <c r="E89" s="8">
         <v>372.839067</v>
       </c>
-      <c r="F89" s="21">
+      <c r="F89" s="8">
         <v>1306.1400000000001</v>
       </c>
-      <c r="G89" s="22">
+      <c r="G89" s="9">
         <v>23.199147</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="20">
+      <c r="A90" s="7">
         <v>750</v>
       </c>
-      <c r="B90" s="21">
+      <c r="B90" s="8">
         <v>5.94</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="8">
         <v>4.2398579999999999</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="8">
         <v>11185.56</v>
       </c>
-      <c r="E90" s="21">
+      <c r="E90" s="8">
         <v>466.10218500000002</v>
       </c>
-      <c r="F90" s="21">
+      <c r="F90" s="8">
         <v>1691.84</v>
       </c>
-      <c r="G90" s="22">
+      <c r="G90" s="9">
         <v>24.640097000000001</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="23">
+      <c r="A91" s="10">
         <v>1000</v>
       </c>
-      <c r="B91" s="24">
+      <c r="B91" s="11">
         <v>9.74</v>
       </c>
-      <c r="C91" s="24">
+      <c r="C91" s="11">
         <v>0.52192000000000005</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="11">
         <v>15683.94</v>
       </c>
-      <c r="E91" s="24">
+      <c r="E91" s="11">
         <v>622.38410699999997</v>
       </c>
-      <c r="F91" s="24">
+      <c r="F91" s="11">
         <v>2343.7199999999998</v>
       </c>
-      <c r="G91" s="25">
+      <c r="G91" s="12">
         <v>39.161225999999999</v>
       </c>
     </row>
@@ -47610,15 +47123,15 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="29" t="s">
+      <c r="A116" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="31"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="18"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
@@ -48105,12 +47618,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A116:G116"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A47:G47"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A93:G93"/>
-    <mergeCell ref="A116:G116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
